--- a/resources/experiment 2/metrics/MAPE/upto time/Enfermedad renal terminal (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Enfermedad renal terminal (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>7685623204499102</v>
+      </c>
+      <c r="C2" t="n">
         <v>7685623204499104</v>
       </c>
-      <c r="C2" t="n">
-        <v>7685623204499103</v>
-      </c>
       <c r="D2" t="n">
-        <v>7685623204499103</v>
+        <v>7685623204499104</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31864134334942.34</v>
+        <v>3125965088212.36</v>
       </c>
       <c r="C3" t="n">
-        <v>31862909066715.57</v>
+        <v>3105794808413.769</v>
       </c>
       <c r="D3" t="n">
-        <v>31862909066715.57</v>
+        <v>183621891795908.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51451010667453.8</v>
+        <v>2833753786547.253</v>
       </c>
       <c r="C4" t="n">
-        <v>51441662329460.09</v>
+        <v>3090500139152.938</v>
       </c>
       <c r="D4" t="n">
-        <v>51441662329460.09</v>
+        <v>84356198720857.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249308470930808</v>
+        <v>289364271577067.1</v>
       </c>
       <c r="C5" t="n">
-        <v>1249308470930808</v>
+        <v>607786644076613</v>
       </c>
       <c r="D5" t="n">
-        <v>1249308470930808</v>
+        <v>2333431973427862</v>
       </c>
     </row>
   </sheetData>
